--- a/ManualScansTemplate.xlsx
+++ b/ManualScansTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakeyr\Documents\5) Scan Results Processor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakeyr\Documents\GitHub\ScanResultsProcessor-RMF\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -922,7 +922,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ManualScansTemplate.xlsx
+++ b/ManualScansTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakeyr\Documents\GitHub\ScanResultsProcessor-RMF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Scan Results Processor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
@@ -922,7 +922,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
